--- a/report/summary_NIKKEI_M5_2020-2023_5.xlsx
+++ b/report/summary_NIKKEI_M5_2020-2023_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -577,39 +577,39 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H3" t="n">
+        <v>450</v>
+      </c>
+      <c r="I3" t="n">
         <v>350</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>300</v>
       </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
       <c r="K3" t="n">
-        <v>23864</v>
+        <v>39142</v>
       </c>
       <c r="L3" t="n">
-        <v>39378</v>
+        <v>10886</v>
       </c>
       <c r="M3" t="n">
-        <v>-1062</v>
+        <v>-994</v>
       </c>
       <c r="N3" t="n">
-        <v>22802</v>
+        <v>38148</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2941490172177358</v>
+        <v>0.2873415395921367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,39 +628,39 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
+        <v>350</v>
+      </c>
+      <c r="I4" t="n">
+        <v>450</v>
+      </c>
+      <c r="J4" t="n">
         <v>250</v>
       </c>
-      <c r="I4" t="n">
-        <v>500</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
       <c r="K4" t="n">
-        <v>13969</v>
+        <v>32825</v>
       </c>
       <c r="L4" t="n">
-        <v>8082</v>
+        <v>5720</v>
       </c>
       <c r="M4" t="n">
         <v>-800</v>
       </c>
       <c r="N4" t="n">
-        <v>13169</v>
+        <v>32025</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3599356594902252</v>
+        <v>0.3423076923076923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,39 +679,39 @@
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I5" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>12284</v>
+        <v>31415</v>
       </c>
       <c r="L5" t="n">
-        <v>9660</v>
+        <v>29386</v>
       </c>
       <c r="M5" t="n">
-        <v>-800</v>
+        <v>-1081</v>
       </c>
       <c r="N5" t="n">
-        <v>11484</v>
+        <v>30334</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3842650103519669</v>
+        <v>0.3146055945007827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -733,36 +733,36 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>3.100000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="I6" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>-35124</v>
+        <v>23864</v>
       </c>
       <c r="L6" t="n">
-        <v>8490</v>
+        <v>39378</v>
       </c>
       <c r="M6" t="n">
-        <v>-612</v>
+        <v>-1062</v>
       </c>
       <c r="N6" t="n">
-        <v>-35736</v>
+        <v>22802</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3387514723203769</v>
+        <v>0.2941490172177358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,39 +781,39 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I7" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>-70563</v>
+        <v>14341</v>
       </c>
       <c r="L7" t="n">
-        <v>11190</v>
+        <v>22460</v>
       </c>
       <c r="M7" t="n">
-        <v>-756</v>
+        <v>-703</v>
       </c>
       <c r="N7" t="n">
-        <v>-71319</v>
+        <v>13638</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1814119749776586</v>
+        <v>0.3024042742653607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -832,39 +832,39 @@
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="I8" t="n">
         <v>500</v>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>-99123</v>
+        <v>13969</v>
       </c>
       <c r="L8" t="n">
-        <v>22925</v>
+        <v>8082</v>
       </c>
       <c r="M8" t="n">
-        <v>-703</v>
+        <v>-800</v>
       </c>
       <c r="N8" t="n">
-        <v>-99826</v>
+        <v>13169</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1770556161395856</v>
+        <v>0.3599356594902252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,84 +883,747 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>250</v>
+      </c>
+      <c r="J9" t="n">
         <v>50</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I9" t="n">
-        <v>500</v>
-      </c>
-      <c r="J9" t="n">
-        <v>350</v>
-      </c>
       <c r="K9" t="n">
-        <v>-106693</v>
+        <v>12284</v>
       </c>
       <c r="L9" t="n">
-        <v>13378</v>
+        <v>9660</v>
       </c>
       <c r="M9" t="n">
-        <v>-756</v>
+        <v>-800</v>
       </c>
       <c r="N9" t="n">
-        <v>-107449</v>
+        <v>11484</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1234115712363582</v>
+        <v>0.3842650103519669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>250</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7958</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15460</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7202</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3711513583441138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>450</v>
+      </c>
+      <c r="I11" t="n">
+        <v>450</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-123</v>
+      </c>
+      <c r="L11" t="n">
+        <v>42698</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1081</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1204</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.3174153356129092</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>300</v>
+      </c>
+      <c r="J12" t="n">
+        <v>200</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-7373</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13974</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-8129</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2674252182624875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>200</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-10452</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26172</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-703</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-11155</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.3664603392939019</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>150</v>
+      </c>
+      <c r="I14" t="n">
+        <v>500</v>
+      </c>
+      <c r="J14" t="n">
+        <v>250</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-10946</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14455</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-778</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-11724</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2691110342442062</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="n">
+        <v>500</v>
+      </c>
+      <c r="J15" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-35124</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8490</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-612</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-35736</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.3387514723203769</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>350</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-45971</v>
+      </c>
+      <c r="L16" t="n">
+        <v>60752</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1081</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-47052</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3621938372399263</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>300</v>
+      </c>
+      <c r="I17" t="n">
+        <v>450</v>
+      </c>
+      <c r="J17" t="n">
+        <v>400</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-49115</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8451</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-1062</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-50177</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.2536977872441131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>200</v>
+      </c>
+      <c r="I18" t="n">
+        <v>500</v>
+      </c>
+      <c r="J18" t="n">
+        <v>450</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-50341</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5137</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-803</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-51144</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2581273116605022</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F19" t="n">
+        <v>80</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>250</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-58281</v>
+      </c>
+      <c r="L19" t="n">
+        <v>85698</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1062</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-59343</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3562276832598193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>50</v>
+      </c>
+      <c r="I20" t="n">
+        <v>450</v>
+      </c>
+      <c r="J20" t="n">
+        <v>200</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-70563</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11190</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-71319</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1814119749776586</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" t="n">
+        <v>500</v>
+      </c>
+      <c r="J21" t="n">
+        <v>200</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-99123</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22925</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-703</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-99826</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.1770556161395856</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F22" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" t="n">
+        <v>500</v>
+      </c>
+      <c r="J22" t="n">
+        <v>350</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-106693</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13378</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-107449</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.1234115712363582</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NIKKEI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F23" t="n">
         <v>100</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G23" t="n">
         <v>1.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H23" t="n">
         <v>50</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I23" t="n">
         <v>350</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J23" t="n">
         <v>100</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K23" t="n">
         <v>-166617</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L23" t="n">
         <v>29087</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M23" t="n">
         <v>-703</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N23" t="n">
         <v>-167320</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O23" t="n">
         <v>0.258878536803383</v>
       </c>
     </row>
